--- a/DBMS_논리적설계.xlsx
+++ b/DBMS_논리적설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shin Min Gee\Desktop\adminPage_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EE5266-8B48-44F0-85AB-FAFB2AAA1814}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E9D9F7-E5F9-49F8-AE42-0982E765255A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6AE60926-0586-4163-ADC3-4FDAEA24E71A}"/>
+    <workbookView xWindow="4800" yWindow="2240" windowWidth="14400" windowHeight="8560" xr2:uid="{6AE60926-0586-4163-ADC3-4FDAEA24E71A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C510AB61-7025-4CB9-89C7-7D6DD6B8EB4D}" name="표1" displayName="표1" ref="B3:D10" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C510AB61-7025-4CB9-89C7-7D6DD6B8EB4D}" name="표1" displayName="표1" ref="B3:D10" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B3:D10" xr:uid="{904B5523-412F-4847-A9CE-F72C8B6342DD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -625,7 +625,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9EC0B675-42C8-4882-AFD7-CCAEF1C3CD56}" name="표1_3" displayName="표1_3" ref="B19:D31" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9EC0B675-42C8-4882-AFD7-CCAEF1C3CD56}" name="표1_3" displayName="표1_3" ref="B19:D31" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B19:D31" xr:uid="{05F82C2A-44F1-42D2-B584-08B0BA0731EA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1019,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107B5FBF-91E5-40EE-BBD4-C8B0B0E92407}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -1031,7 +1031,7 @@
     <col min="6" max="6" width="15.9140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>

--- a/DBMS_논리적설계.xlsx
+++ b/DBMS_논리적설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shin Min Gee\Desktop\adminPage_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E9D9F7-E5F9-49F8-AE42-0982E765255A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B342A7-CD47-483D-A1E1-A8A8ECFF005F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2240" windowWidth="14400" windowHeight="8560" xr2:uid="{6AE60926-0586-4163-ADC3-4FDAEA24E71A}"/>
+    <workbookView xWindow="-820" yWindow="870" windowWidth="13180" windowHeight="8560" xr2:uid="{6AE60926-0586-4163-ADC3-4FDAEA24E71A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="105">
   <si>
     <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>새성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>updated_at</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,15 +425,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호 갱신일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 실패이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null, auto increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">not null </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,112 +620,126 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C510AB61-7025-4CB9-89C7-7D6DD6B8EB4D}" name="표1" displayName="표1" ref="B3:D10" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B3:D10" xr:uid="{904B5523-412F-4847-A9CE-F72C8B6342DD}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C510AB61-7025-4CB9-89C7-7D6DD6B8EB4D}" name="표1" displayName="표1" ref="B3:E10" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B3:E10" xr:uid="{904B5523-412F-4847-A9CE-F72C8B6342DD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E62A0A7F-E489-4BE2-A844-42B811785921}" name="category"/>
     <tableColumn id="2" xr3:uid="{F1971D77-4043-461E-82CF-AC707CC5A418}" name="type"/>
     <tableColumn id="3" xr3:uid="{52E2525A-F6C8-437E-9CCE-51FB5641E796}" name="content"/>
+    <tableColumn id="4" xr3:uid="{0FD215AF-CB24-4B89-9A4F-B291CAC0BEAE}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9EC0B675-42C8-4882-AFD7-CCAEF1C3CD56}" name="표1_3" displayName="표1_3" ref="B19:D31" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="B19:D31" xr:uid="{05F82C2A-44F1-42D2-B584-08B0BA0731EA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9EC0B675-42C8-4882-AFD7-CCAEF1C3CD56}" name="표1_3" displayName="표1_3" ref="B19:E31" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="B19:E31" xr:uid="{05F82C2A-44F1-42D2-B584-08B0BA0731EA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EB9A0996-07EF-40DF-9F50-3A1EF6E1A060}" name="user"/>
     <tableColumn id="2" xr3:uid="{0D087ABE-8A97-41CC-903A-4D9D2A0209B2}" name="type"/>
     <tableColumn id="3" xr3:uid="{B33CCA6C-EA05-4C0F-8BFE-992EC6A892E9}" name="content"/>
+    <tableColumn id="4" xr3:uid="{8904150C-ABCA-415A-B23A-FE303711A23E}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A34B3337-42CE-4FFD-99CD-AB9C1F745DED}" name="표4" displayName="표4" ref="F19:H33" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="F19:H33" xr:uid="{F0E7A3F9-6F6F-43F2-B241-7BD0CB323EA9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A34B3337-42CE-4FFD-99CD-AB9C1F745DED}" name="표4" displayName="표4" ref="G19:J33" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="G19:J33" xr:uid="{F0E7A3F9-6F6F-43F2-B241-7BD0CB323EA9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{38C69337-9C61-45C2-A8CC-BDD634E70150}" name="partner"/>
     <tableColumn id="2" xr3:uid="{CAC8CFF8-A5C4-4115-81B6-31ACB45DF184}" name="type"/>
     <tableColumn id="3" xr3:uid="{1BA9108D-37A1-4F0F-8599-3B81161021F2}" name="content"/>
+    <tableColumn id="4" xr3:uid="{E40E6F81-91D6-4FE5-84A8-11F8DC7CFD49}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{053DEFD7-476B-41EE-9C31-5A9D01715D3D}" name="표5" displayName="표5" ref="F3:H16" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="F3:H16" xr:uid="{290F105D-3B6F-4D6B-A813-015DF99C36EB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{053DEFD7-476B-41EE-9C31-5A9D01715D3D}" name="표5" displayName="표5" ref="G3:J16" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="G3:J16" xr:uid="{290F105D-3B6F-4D6B-A813-015DF99C36EB}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D39BBD74-76E2-48FB-AB7C-EC54787FA71A}" name="item"/>
     <tableColumn id="2" xr3:uid="{C65B6E4D-7E11-40EB-B94D-E295C79A3634}" name="type"/>
     <tableColumn id="3" xr3:uid="{7D8BFDD0-8897-4C92-80CE-F0BA1655C8AC}" name="content"/>
+    <tableColumn id="4" xr3:uid="{DD744EC1-6404-40D3-8A17-58B2DE7F0E9D}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F5EC1542-0869-4F76-B76D-7EE127F46E90}" name="표6" displayName="표6" ref="B36:D45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B36:D45" xr:uid="{DF2E443A-BA91-43B8-89BA-722678B4D27C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F5EC1542-0869-4F76-B76D-7EE127F46E90}" name="표6" displayName="표6" ref="B36:E45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B36:E45" xr:uid="{DF2E443A-BA91-43B8-89BA-722678B4D27C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6B6BF4BA-B30E-4E62-9F12-7977157E02A4}" name="order_detail"/>
     <tableColumn id="2" xr3:uid="{8263B486-C87D-44FC-B692-0919DCDFC1D4}" name="type"/>
     <tableColumn id="3" xr3:uid="{5C32C384-C0B6-4A17-B122-A451EDC7195B}" name="content"/>
+    <tableColumn id="4" xr3:uid="{DFA20074-6B4D-4DFA-BF8E-A5DDD5F7B76F}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{406AE46F-A7CC-436B-AC5E-F67EB26DF8EB}" name="표7" displayName="표7" ref="F36:H50" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="F36:H50" xr:uid="{5C7DE42F-07F5-4B01-9C20-0D693E3AC462}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{406AE46F-A7CC-436B-AC5E-F67EB26DF8EB}" name="표7" displayName="표7" ref="G36:J50" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="G36:J50" xr:uid="{5C7DE42F-07F5-4B01-9C20-0D693E3AC462}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B5DD15F2-6F28-4973-8667-BE803FF07395}" name="order_group"/>
     <tableColumn id="2" xr3:uid="{2A0A6E08-FDB6-4CE3-8E1C-70F54A0DD2B4}" name="type"/>
     <tableColumn id="3" xr3:uid="{0370BFC9-0398-4F72-A943-FFE534B8F76A}" name="content"/>
+    <tableColumn id="4" xr3:uid="{1F08F26F-5BE4-47B0-83E8-9B2D9D4A0DA4}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{45024761-7CAA-4774-B9F8-86BBF8E436F8}" name="표8" displayName="표8" ref="J19:L33" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="J19:L33" xr:uid="{0548EF3F-61E1-4BEB-8D3C-DE64AC8C5D25}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{45024761-7CAA-4774-B9F8-86BBF8E436F8}" name="표8" displayName="표8" ref="L19:O33" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="L19:O33" xr:uid="{0548EF3F-61E1-4BEB-8D3C-DE64AC8C5D25}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9EF5A7E4-A975-4D06-8850-26D0C6D919E0}" name="admin_user"/>
     <tableColumn id="2" xr3:uid="{942DEEBE-88A9-49ED-8011-424FE995F40D}" name="type"/>
     <tableColumn id="3" xr3:uid="{EAC8C92A-7E28-402C-823E-71C72DD139BE}" name="content"/>
+    <tableColumn id="4" xr3:uid="{12507743-3EAC-4CFD-8731-620617F7E713}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1017,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107B5FBF-91E5-40EE-BBD4-C8B0B0E92407}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1028,20 +1053,24 @@
     <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.9140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,17 +1080,23 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>55</v>
+      <c r="E3" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1071,17 +1106,23 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1091,17 +1132,23 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
+      <c r="E5" t="s">
+        <v>102</v>
       </c>
       <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1111,17 +1158,20 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -1131,17 +1181,23 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
       <c r="H7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1149,127 +1205,139 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
         <v>58</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="F11" t="s">
+    <row r="12" spans="1:10">
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="F13" t="s">
+    <row r="13" spans="1:10">
+      <c r="G13" t="s">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="F14" t="s">
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="G14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="F15" t="s">
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
         <v>16</v>
       </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
@@ -1277,26 +1345,35 @@
       <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>40</v>
+      <c r="E19" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:13">
+      <c r="O19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -1306,232 +1383,271 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
         <v>3</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>4</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>5</v>
       </c>
       <c r="J20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" t="s">
         <v>3</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>4</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:13">
+      <c r="O20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="H21" t="s">
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
         <v>48</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" t="s">
         <v>24</v>
       </c>
-      <c r="K21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" t="s">
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" t="s">
         <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" t="s">
-        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G24" t="s">
         <v>42</v>
       </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
         <v>50</v>
       </c>
-      <c r="J23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="L24" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24" t="s">
         <v>6</v>
       </c>
-      <c r="L23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" t="s">
+      <c r="N24" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
         <v>34</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" t="s">
         <v>43</v>
       </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s">
         <v>51</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L25" t="s">
         <v>93</v>
       </c>
-      <c r="K24" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="M25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
-      <c r="B25" t="s">
+    <row r="26" spans="2:15">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
         <v>35</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G26" t="s">
         <v>44</v>
       </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
         <v>52</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L26" t="s">
         <v>94</v>
       </c>
-      <c r="K25" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="M26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
-      <c r="B26" t="s">
+    <row r="27" spans="2:15">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
         <v>36</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G27" t="s">
         <v>45</v>
       </c>
-      <c r="G26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
         <v>53</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L27" t="s">
         <v>95</v>
       </c>
-      <c r="K26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" t="s">
-        <v>100</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="M27" t="s">
+        <v>71</v>
+      </c>
+      <c r="N27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" t="s">
-        <v>96</v>
-      </c>
-      <c r="K27" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:15">
       <c r="B28" t="s">
         <v>10</v>
       </c>
@@ -1541,26 +1657,29 @@
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" t="s">
-        <v>29</v>
+      <c r="E28" t="s">
+        <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>35</v>
       </c>
       <c r="L28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
       <c r="B29" t="s">
         <v>13</v>
       </c>
@@ -1568,128 +1687,143 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
       </c>
       <c r="L29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
       <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" t="s">
         <v>17</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" t="s">
-        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
         <v>13</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>14</v>
       </c>
-      <c r="H31" t="s">
-        <v>38</v>
+      <c r="I31" t="s">
+        <v>37</v>
       </c>
       <c r="J31" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" t="s">
         <v>13</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>14</v>
       </c>
-      <c r="L31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="F32" t="s">
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
         <v>16</v>
       </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="L32" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="G33" t="s">
         <v>17</v>
       </c>
-      <c r="J32" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="F33" t="s">
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" t="s">
         <v>18</v>
       </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
+    </row>
+    <row r="36" spans="2:14">
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1</v>
@@ -1697,17 +1831,23 @@
       <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>77</v>
+      <c r="E36" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="2:12">
+      <c r="J36" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
       <c r="B37" t="s">
         <v>3</v>
       </c>
@@ -1717,97 +1857,118 @@
       <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
         <v>3</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>4</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="2:12">
+      <c r="J37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
       <c r="B38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
         <v>73</v>
       </c>
-      <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s">
         <v>6</v>
       </c>
-      <c r="H38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" t="s">
+      <c r="I39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" t="s">
         <v>69</v>
       </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
         <v>74</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
         <v>6</v>
       </c>
-      <c r="H39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:14">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -1817,17 +1978,23 @@
       <c r="D42" t="s">
         <v>12</v>
       </c>
-      <c r="F42" t="s">
-        <v>81</v>
+      <c r="E42" t="s">
+        <v>102</v>
       </c>
       <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s">
         <v>6</v>
       </c>
-      <c r="H42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12">
+      <c r="I42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
       <c r="B43" t="s">
         <v>13</v>
       </c>
@@ -1835,111 +2002,126 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s">
         <v>71</v>
       </c>
-      <c r="G43" t="s">
-        <v>59</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="I44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="J44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" t="s">
         <v>17</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="B45" t="s">
-        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="2:12">
-      <c r="F46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="F47" t="s">
+    <row r="47" spans="2:14">
+      <c r="G47" t="s">
         <v>10</v>
       </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
       <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="F48" t="s">
+      <c r="J47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="G48" t="s">
         <v>13</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>14</v>
       </c>
-      <c r="H48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="6:8">
-      <c r="F49" t="s">
+      <c r="I48" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9">
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
         <v>16</v>
       </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" t="s">
+    </row>
+    <row r="50" spans="7:9">
+      <c r="G50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="6:8">
-      <c r="F50" t="s">
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
         <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DBMS_논리적설계.xlsx
+++ b/DBMS_논리적설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shin Min Gee\Desktop\adminPage_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B342A7-CD47-483D-A1E1-A8A8ECFF005F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED176C73-3776-482D-A084-0BEADA1C4328}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="870" windowWidth="13180" windowHeight="8560" xr2:uid="{6AE60926-0586-4163-ADC3-4FDAEA24E71A}"/>
+    <workbookView xWindow="20" yWindow="640" windowWidth="11170" windowHeight="8560" xr2:uid="{6AE60926-0586-4163-ADC3-4FDAEA24E71A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107B5FBF-91E5-40EE-BBD4-C8B0B0E92407}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1060,7 +1060,8 @@
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
